--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Code system to identify "What Matters" concepts from the VA Whole Health appraoch and Circle of Health.</t>
+    <t>Code system to identify "What Matters" concepts from the VA Whole Health approach and Circle of Health.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-va-whole-health-example.xlsx
+++ b/CodeSystem-va-whole-health-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
